--- a/FastSearchResults.xlsx
+++ b/FastSearchResults.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbeas\src\FastSearchSQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CF3F32-3C9B-4954-A03E-792BCB2FF2A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DD684B-7162-4C01-9DE0-5455405692A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9F28F0F2-DA8B-45EE-BC77-2988CD206749}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{9F28F0F2-DA8B-45EE-BC77-2988CD206749}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Pivot" sheetId="2" r:id="rId2"/>
+    <sheet name="Data 1,2 Removed" sheetId="3" r:id="rId3"/>
+    <sheet name="Pivot 1,2 Removed" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="44" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="5" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="12">
   <si>
     <t>Query 1</t>
   </si>
@@ -80,6 +83,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -127,7 +133,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -168,6 +175,9 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -224,6 +234,9 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -280,6 +293,9 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -336,6 +352,9 @@
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -392,6 +411,9 @@
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -448,6 +470,9 @@
       <c:pivotFmt>
         <c:idx val="5"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -637,6 +662,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -649,7 +715,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Pivot!$B$3:$B$4</c:f>
+              <c:f>Pivot!$B$1:$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -672,7 +738,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Pivot!$A$5:$A$52</c:f>
+              <c:f>Pivot!$A$3:$A$50</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="40"/>
                 <c:lvl>
@@ -828,9 +894,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot!$B$5:$B$52</c:f>
+              <c:f>Pivot!$B$3:$B$50</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -967,7 +1033,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Pivot!$C$3:$C$4</c:f>
+              <c:f>Pivot!$C$1:$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -990,7 +1056,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Pivot!$A$5:$A$52</c:f>
+              <c:f>Pivot!$A$3:$A$50</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="40"/>
                 <c:lvl>
@@ -1146,9 +1212,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot!$C$5:$C$52</c:f>
+              <c:f>Pivot!$C$3:$C$50</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1285,7 +1351,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Pivot!$D$3:$D$4</c:f>
+              <c:f>Pivot!$D$1:$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1308,7 +1374,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Pivot!$A$5:$A$52</c:f>
+              <c:f>Pivot!$A$3:$A$50</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="40"/>
                 <c:lvl>
@@ -1464,9 +1530,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot!$D$5:$D$52</c:f>
+              <c:f>Pivot!$D$3:$D$50</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
@@ -1682,7 +1748,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1816,7 +1882,1125 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[FastSearchResults.xlsx]Pivot 1,2 Removed!PivotTable1</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pivot 1,2 Removed'!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Query 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Pivot 1,2 Removed'!$A$3:$A$34</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="24"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1234</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>12345</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1234</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>12345</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1234</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>12345</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1234</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12345</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1234</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>12345</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1234</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>12345</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1234</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>12345</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>1234</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>12345</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>50000</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>100000</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>200000</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>250000</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>500000</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>1000000</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot 1,2 Removed'!$B$3:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>787</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1570</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1633</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1607</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C2F6-4A54-9319-9CE279EF349B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pivot 1,2 Removed'!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Query 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Pivot 1,2 Removed'!$A$3:$A$34</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="24"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1234</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>12345</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1234</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>12345</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1234</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>12345</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1234</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12345</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1234</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>12345</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1234</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>12345</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1234</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>12345</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>1234</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>12345</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>50000</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>100000</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>200000</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>250000</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>500000</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>1000000</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot 1,2 Removed'!$C$3:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C2F6-4A54-9319-9CE279EF349B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pivot 1,2 Removed'!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Query 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Pivot 1,2 Removed'!$A$3:$A$34</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="24"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1234</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>12345</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1234</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>12345</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1234</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>12345</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1234</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12345</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1234</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>12345</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1234</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>12345</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1234</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>12345</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>1234</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>12345</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>50000</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>100000</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>200000</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>250000</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>500000</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>1000000</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot 1,2 Removed'!$D$3:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C2F6-4A54-9319-9CE279EF349B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="387027712"/>
+        <c:axId val="387026880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="387027712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387026880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="387026880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387027712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2372,20 +3556,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>109536</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2393,6 +4093,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C562CAA6-373D-4609-AAB6-983FE0603AF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC8A4392-E710-47D5-8A76-62E111D28D7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2465,6 +4206,56 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Steven Beasley" refreshedDate="44278.414927430553" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="72" xr:uid="{1CC6FB3D-DD6A-437D-9F27-D6E9E3D7AA64}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F73" sheet="Data 1,2 Removed"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Query 1"/>
+        <s v="Query 2"/>
+        <s v="Query 3"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Search Value" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="123" maxValue="12345" count="3">
+        <n v="123"/>
+        <n v="1234"/>
+        <n v="12345"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Exec (ms)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1633"/>
+    </cacheField>
+    <cacheField name="Query Results" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="14086"/>
+    </cacheField>
+    <cacheField name="Word Count" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1000" maxValue="1000000" count="8">
+        <n v="1000"/>
+        <n v="10000"/>
+        <n v="50000"/>
+        <n v="100000"/>
+        <n v="200000"/>
+        <n v="250000"/>
+        <n v="500000"/>
+        <n v="1000000"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Word Fragment Count" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="15000" maxValue="15000000"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="120">
   <r>
@@ -3430,9 +5221,590 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="72">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="15"/>
+    <x v="0"/>
+    <n v="15000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="13"/>
+    <n v="15"/>
+    <x v="0"/>
+    <n v="15000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="7"/>
+    <n v="15"/>
+    <x v="0"/>
+    <n v="15000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="15000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="15000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="15000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="15000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="15000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="15000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="23"/>
+    <n v="121"/>
+    <x v="1"/>
+    <n v="150000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="27"/>
+    <n v="121"/>
+    <x v="1"/>
+    <n v="150000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="10"/>
+    <n v="121"/>
+    <x v="1"/>
+    <n v="150000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="18"/>
+    <x v="1"/>
+    <n v="150000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="7"/>
+    <n v="18"/>
+    <x v="1"/>
+    <n v="150000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="18"/>
+    <x v="1"/>
+    <n v="150000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="27"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="150000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="150000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="150000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="93"/>
+    <n v="674"/>
+    <x v="2"/>
+    <n v="750000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="17"/>
+    <n v="674"/>
+    <x v="2"/>
+    <n v="750000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="20"/>
+    <n v="674"/>
+    <x v="2"/>
+    <n v="750000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="90"/>
+    <n v="67"/>
+    <x v="2"/>
+    <n v="750000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="67"/>
+    <x v="2"/>
+    <n v="750000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="20"/>
+    <n v="67"/>
+    <x v="2"/>
+    <n v="750000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="94"/>
+    <n v="7"/>
+    <x v="2"/>
+    <n v="750000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="30"/>
+    <n v="7"/>
+    <x v="2"/>
+    <n v="750000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="20"/>
+    <n v="7"/>
+    <x v="2"/>
+    <n v="750000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="173"/>
+    <n v="1380"/>
+    <x v="3"/>
+    <n v="1500000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="14"/>
+    <n v="1380"/>
+    <x v="3"/>
+    <n v="1500000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="20"/>
+    <n v="1380"/>
+    <x v="3"/>
+    <n v="1500000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="170"/>
+    <n v="138"/>
+    <x v="3"/>
+    <n v="1500000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="138"/>
+    <x v="3"/>
+    <n v="1500000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="138"/>
+    <x v="3"/>
+    <n v="1500000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="176"/>
+    <n v="9"/>
+    <x v="3"/>
+    <n v="1500000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="14"/>
+    <n v="9"/>
+    <x v="3"/>
+    <n v="1500000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="20"/>
+    <n v="9"/>
+    <x v="3"/>
+    <n v="1500000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="326"/>
+    <n v="2775"/>
+    <x v="4"/>
+    <n v="3000000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="17"/>
+    <n v="2775"/>
+    <x v="4"/>
+    <n v="3000000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="20"/>
+    <n v="2775"/>
+    <x v="4"/>
+    <n v="3000000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="350"/>
+    <n v="287"/>
+    <x v="4"/>
+    <n v="3000000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="287"/>
+    <x v="4"/>
+    <n v="3000000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="20"/>
+    <n v="287"/>
+    <x v="4"/>
+    <n v="3000000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="340"/>
+    <n v="18"/>
+    <x v="4"/>
+    <n v="3000000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="16"/>
+    <n v="18"/>
+    <x v="4"/>
+    <n v="3000000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="17"/>
+    <n v="18"/>
+    <x v="4"/>
+    <n v="3000000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="443"/>
+    <n v="3520"/>
+    <x v="5"/>
+    <n v="3750000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="20"/>
+    <n v="3520"/>
+    <x v="5"/>
+    <n v="3750000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="24"/>
+    <n v="3520"/>
+    <x v="5"/>
+    <n v="3750000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="436"/>
+    <n v="374"/>
+    <x v="5"/>
+    <n v="3750000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="20"/>
+    <n v="374"/>
+    <x v="5"/>
+    <n v="3750000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="24"/>
+    <n v="374"/>
+    <x v="5"/>
+    <n v="3750000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="483"/>
+    <n v="29"/>
+    <x v="5"/>
+    <n v="3750000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="20"/>
+    <n v="29"/>
+    <x v="5"/>
+    <n v="3750000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="17"/>
+    <n v="29"/>
+    <x v="5"/>
+    <n v="3750000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="760"/>
+    <n v="7074"/>
+    <x v="6"/>
+    <n v="7500000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="30"/>
+    <n v="7074"/>
+    <x v="6"/>
+    <n v="7500000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="37"/>
+    <n v="7074"/>
+    <x v="6"/>
+    <n v="7500000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="780"/>
+    <n v="736"/>
+    <x v="6"/>
+    <n v="7500000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="30"/>
+    <n v="736"/>
+    <x v="6"/>
+    <n v="7500000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="736"/>
+    <x v="6"/>
+    <n v="7500000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="787"/>
+    <n v="66"/>
+    <x v="6"/>
+    <n v="7500000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="30"/>
+    <n v="66"/>
+    <x v="6"/>
+    <n v="7500000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="30"/>
+    <n v="66"/>
+    <x v="6"/>
+    <n v="7500000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1570"/>
+    <n v="14086"/>
+    <x v="7"/>
+    <n v="15000000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="60"/>
+    <n v="14086"/>
+    <x v="7"/>
+    <n v="15000000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="84"/>
+    <n v="14086"/>
+    <x v="7"/>
+    <n v="15000000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1633"/>
+    <n v="1365"/>
+    <x v="7"/>
+    <n v="15000000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="57"/>
+    <n v="1365"/>
+    <x v="7"/>
+    <n v="15000000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="56"/>
+    <n v="1365"/>
+    <x v="7"/>
+    <n v="15000000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1607"/>
+    <n v="124"/>
+    <x v="7"/>
+    <n v="15000000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="57"/>
+    <n v="124"/>
+    <x v="7"/>
+    <n v="15000000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="53"/>
+    <n v="124"/>
+    <x v="7"/>
+    <n v="15000000"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAC95243-0242-448D-9D72-C21596977E65}" name="PivotTable2" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="22">
-  <location ref="A3:D52" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAC95243-0242-448D-9D72-C21596977E65}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="22">
+  <location ref="A1:D50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisCol" showAll="0">
       <items count="4">
@@ -3634,7 +6006,7 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of Exec (ms)" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of Exec (ms)" fld="2" subtotal="average" baseField="4" baseItem="0" numFmtId="164"/>
   </dataFields>
   <chartFormats count="10">
     <chartFormat chart="0" format="5" series="1">
@@ -3743,6 +6115,212 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="7" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B5699198-042A-41E5-8381-20339403C52B}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A1:D34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="4"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="32">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Exec (ms)" fld="2" subtotal="average" baseField="1" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4066,8 +6644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94BB1CF-B782-429D-90CC-3CE8D3E54658}">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107:F121"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6508,10 +9086,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43945F38-9DBE-4D22-81AC-DAFB181B0B52}">
-  <dimension ref="A3:D52"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6526,249 +9104,2477 @@
     <col min="25" max="25" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>123</v>
+      </c>
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>1234</v>
+      </c>
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>12345</v>
+      </c>
+      <c r="B8" s="6">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B9" s="6">
+        <v>13.4</v>
+      </c>
+      <c r="C9" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C10" s="6">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>12</v>
+      </c>
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>123</v>
+      </c>
+      <c r="B12" s="6">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6">
+        <v>4</v>
+      </c>
+      <c r="D12" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>1234</v>
+      </c>
+      <c r="B13" s="6">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>12345</v>
+      </c>
+      <c r="B14" s="6">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B15" s="6">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="C15" s="6">
+        <v>25.8</v>
+      </c>
+      <c r="D15" s="6">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>1</v>
+      </c>
+      <c r="B16" s="6">
+        <v>47</v>
+      </c>
+      <c r="C16" s="6">
+        <v>46</v>
+      </c>
+      <c r="D16" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6">
+        <v>73</v>
+      </c>
+      <c r="C17" s="6">
+        <v>20</v>
+      </c>
+      <c r="D17" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>123</v>
+      </c>
+      <c r="B18" s="6">
+        <v>80</v>
+      </c>
+      <c r="C18" s="6">
+        <v>20</v>
+      </c>
+      <c r="D18" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>1234</v>
+      </c>
+      <c r="B19" s="6">
+        <v>84</v>
+      </c>
+      <c r="C19" s="6">
+        <v>20</v>
+      </c>
+      <c r="D19" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>12345</v>
+      </c>
+      <c r="B20" s="6">
+        <v>83</v>
+      </c>
+      <c r="C20" s="6">
+        <v>23</v>
+      </c>
+      <c r="D20" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>100000</v>
+      </c>
+      <c r="B21" s="6">
+        <v>141.19999999999999</v>
+      </c>
+      <c r="C21" s="6">
+        <v>24.8</v>
+      </c>
+      <c r="D21" s="6">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>1</v>
+      </c>
+      <c r="B22" s="6">
+        <v>94</v>
+      </c>
+      <c r="C22" s="6">
+        <v>56</v>
+      </c>
+      <c r="D22" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>12</v>
+      </c>
+      <c r="B23" s="6">
+        <v>144</v>
+      </c>
+      <c r="C23" s="6">
+        <v>20</v>
+      </c>
+      <c r="D23" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>123</v>
+      </c>
+      <c r="B24" s="6">
+        <v>157</v>
+      </c>
+      <c r="C24" s="6">
+        <v>16</v>
+      </c>
+      <c r="D24" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>1234</v>
+      </c>
+      <c r="B25" s="6">
+        <v>154</v>
+      </c>
+      <c r="C25" s="6">
+        <v>16</v>
+      </c>
+      <c r="D25" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>12345</v>
+      </c>
+      <c r="B26" s="6">
+        <v>157</v>
+      </c>
+      <c r="C26" s="6">
+        <v>16</v>
+      </c>
+      <c r="D26" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>200000</v>
+      </c>
+      <c r="B27" s="6">
+        <v>323</v>
+      </c>
+      <c r="C27" s="6">
+        <v>49.2</v>
+      </c>
+      <c r="D27" s="6">
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>1</v>
+      </c>
+      <c r="B28" s="6">
+        <v>210</v>
+      </c>
+      <c r="C28" s="6">
+        <v>107</v>
+      </c>
+      <c r="D28" s="6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>12</v>
+      </c>
+      <c r="B29" s="6">
+        <v>327</v>
+      </c>
+      <c r="C29" s="6">
+        <v>43</v>
+      </c>
+      <c r="D29" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>123</v>
+      </c>
+      <c r="B30" s="6">
+        <v>334</v>
+      </c>
+      <c r="C30" s="6">
+        <v>30</v>
+      </c>
+      <c r="D30" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>1234</v>
+      </c>
+      <c r="B31" s="6">
+        <v>384</v>
+      </c>
+      <c r="C31" s="6">
+        <v>36</v>
+      </c>
+      <c r="D31" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>12345</v>
+      </c>
+      <c r="B32" s="6">
+        <v>360</v>
+      </c>
+      <c r="C32" s="6">
+        <v>30</v>
+      </c>
+      <c r="D32" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>250000</v>
+      </c>
+      <c r="B33" s="6">
+        <v>375.2</v>
+      </c>
+      <c r="C33" s="6">
+        <v>60</v>
+      </c>
+      <c r="D33" s="6">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>1</v>
+      </c>
+      <c r="B34" s="6">
+        <v>230</v>
+      </c>
+      <c r="C34" s="6">
+        <v>127</v>
+      </c>
+      <c r="D34" s="6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>12</v>
+      </c>
+      <c r="B35" s="6">
+        <v>360</v>
+      </c>
+      <c r="C35" s="6">
+        <v>50</v>
+      </c>
+      <c r="D35" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>123</v>
+      </c>
+      <c r="B36" s="6">
+        <v>430</v>
+      </c>
+      <c r="C36" s="6">
+        <v>43</v>
+      </c>
+      <c r="D36" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>1234</v>
+      </c>
+      <c r="B37" s="6">
+        <v>426</v>
+      </c>
+      <c r="C37" s="6">
+        <v>40</v>
+      </c>
+      <c r="D37" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>12345</v>
+      </c>
+      <c r="B38" s="6">
+        <v>430</v>
+      </c>
+      <c r="C38" s="6">
+        <v>40</v>
+      </c>
+      <c r="D38" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>500000</v>
+      </c>
+      <c r="B39" s="6">
+        <v>750.8</v>
+      </c>
+      <c r="C39" s="6">
+        <v>128</v>
+      </c>
+      <c r="D39" s="6">
+        <v>124.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>1</v>
+      </c>
+      <c r="B40" s="6">
+        <v>473</v>
+      </c>
+      <c r="C40" s="6">
+        <v>267</v>
+      </c>
+      <c r="D40" s="6">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>12</v>
+      </c>
+      <c r="B41" s="6">
+        <v>793</v>
+      </c>
+      <c r="C41" s="6">
+        <v>114</v>
+      </c>
+      <c r="D41" s="6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>123</v>
+      </c>
+      <c r="B42" s="6">
+        <v>830</v>
+      </c>
+      <c r="C42" s="6">
+        <v>80</v>
+      </c>
+      <c r="D42" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>1234</v>
+      </c>
+      <c r="B43" s="6">
+        <v>824</v>
+      </c>
+      <c r="C43" s="6">
+        <v>83</v>
+      </c>
+      <c r="D43" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>12345</v>
+      </c>
+      <c r="B44" s="6">
+        <v>834</v>
+      </c>
+      <c r="C44" s="6">
+        <v>96</v>
+      </c>
+      <c r="D44" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B45" s="6">
+        <v>1460.8</v>
+      </c>
+      <c r="C45" s="6">
+        <v>243.8</v>
+      </c>
+      <c r="D45" s="6">
+        <v>242.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>1</v>
+      </c>
+      <c r="B46" s="6">
+        <v>920</v>
+      </c>
+      <c r="C46" s="6">
+        <v>553</v>
+      </c>
+      <c r="D46" s="6">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>12</v>
+      </c>
+      <c r="B47" s="6">
+        <v>1497</v>
+      </c>
+      <c r="C47" s="6">
+        <v>190</v>
+      </c>
+      <c r="D47" s="6">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>123</v>
+      </c>
+      <c r="B48" s="6">
+        <v>1594</v>
+      </c>
+      <c r="C48" s="6">
+        <v>153</v>
+      </c>
+      <c r="D48" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>1234</v>
+      </c>
+      <c r="B49" s="6">
+        <v>1623</v>
+      </c>
+      <c r="C49" s="6">
+        <v>160</v>
+      </c>
+      <c r="D49" s="6">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>12345</v>
+      </c>
+      <c r="B50" s="6">
+        <v>1670</v>
+      </c>
+      <c r="C50" s="6">
+        <v>163</v>
+      </c>
+      <c r="D50" s="6">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D13B70-9950-4D2D-9226-7E23E63112C4}">
+  <dimension ref="A1:F73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection sqref="A1:F73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B2" s="5">
+        <v>123</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B3" s="5">
+        <v>123</v>
+      </c>
+      <c r="C3" s="5">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="B4" s="5">
+        <v>123</v>
+      </c>
+      <c r="C4" s="5">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5">
         <v>1000</v>
       </c>
+      <c r="F4" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="B5" s="5">
-        <v>2</v>
+        <v>1234</v>
       </c>
       <c r="C5" s="5">
         <v>0</v>
       </c>
       <c r="D5" s="5">
-        <v>0.6</v>
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1234</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1234</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5">
+        <v>12345</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5">
+        <v>12345</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5">
+        <v>12345</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="5">
+        <v>123</v>
+      </c>
+      <c r="C11" s="5">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5">
+        <v>121</v>
+      </c>
+      <c r="E11" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F11" s="5">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5">
+        <v>123</v>
+      </c>
+      <c r="C12" s="5">
+        <v>27</v>
+      </c>
+      <c r="D12" s="5">
+        <v>121</v>
+      </c>
+      <c r="E12" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F12" s="5">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5">
+        <v>123</v>
+      </c>
+      <c r="C13" s="5">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5">
+        <v>121</v>
+      </c>
+      <c r="E13" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F13" s="5">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1234</v>
+      </c>
+      <c r="C14" s="5">
+        <v>23</v>
+      </c>
+      <c r="D14" s="5">
+        <v>18</v>
+      </c>
+      <c r="E14" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F14" s="5">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1234</v>
+      </c>
+      <c r="C15" s="5">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5">
+        <v>18</v>
+      </c>
+      <c r="E15" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F15" s="5">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1234</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5">
+        <v>18</v>
+      </c>
+      <c r="E16" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F16" s="5">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5">
+        <v>12345</v>
+      </c>
+      <c r="C17" s="5">
+        <v>27</v>
+      </c>
+      <c r="D17" s="5">
+        <v>3</v>
+      </c>
+      <c r="E17" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F17" s="5">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5">
+        <v>12345</v>
+      </c>
+      <c r="C18" s="5">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5">
+        <v>3</v>
+      </c>
+      <c r="E18" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F18" s="5">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="5">
+        <v>12345</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5">
+        <v>3</v>
+      </c>
+      <c r="E19" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F19" s="5">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="5">
+        <v>123</v>
+      </c>
+      <c r="C20" s="5">
+        <v>93</v>
+      </c>
+      <c r="D20" s="5">
+        <v>674</v>
+      </c>
+      <c r="E20" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F20" s="5">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5">
+        <v>123</v>
+      </c>
+      <c r="C21" s="5">
+        <v>17</v>
+      </c>
+      <c r="D21" s="5">
+        <v>674</v>
+      </c>
+      <c r="E21" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F21" s="5">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5">
+        <v>123</v>
+      </c>
+      <c r="C22" s="5">
+        <v>20</v>
+      </c>
+      <c r="D22" s="5">
+        <v>674</v>
+      </c>
+      <c r="E22" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F22" s="5">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1234</v>
+      </c>
+      <c r="C23" s="5">
+        <v>90</v>
+      </c>
+      <c r="D23" s="5">
+        <v>67</v>
+      </c>
+      <c r="E23" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F23" s="5">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1234</v>
+      </c>
+      <c r="C24" s="5">
+        <v>23</v>
+      </c>
+      <c r="D24" s="5">
+        <v>67</v>
+      </c>
+      <c r="E24" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F24" s="5">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1234</v>
+      </c>
+      <c r="C25" s="5">
+        <v>20</v>
+      </c>
+      <c r="D25" s="5">
+        <v>67</v>
+      </c>
+      <c r="E25" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F25" s="5">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="5">
+        <v>12345</v>
+      </c>
+      <c r="C26" s="5">
+        <v>94</v>
+      </c>
+      <c r="D26" s="5">
+        <v>7</v>
+      </c>
+      <c r="E26" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F26" s="5">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="5">
+        <v>12345</v>
+      </c>
+      <c r="C27" s="5">
+        <v>30</v>
+      </c>
+      <c r="D27" s="5">
+        <v>7</v>
+      </c>
+      <c r="E27" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F27" s="5">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="5">
+        <v>12345</v>
+      </c>
+      <c r="C28" s="5">
+        <v>20</v>
+      </c>
+      <c r="D28" s="5">
+        <v>7</v>
+      </c>
+      <c r="E28" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F28" s="5">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="5">
+        <v>123</v>
+      </c>
+      <c r="C29" s="5">
+        <v>173</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1380</v>
+      </c>
+      <c r="E29" s="5">
+        <v>100000</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="5">
+        <v>123</v>
+      </c>
+      <c r="C30" s="5">
+        <v>14</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1380</v>
+      </c>
+      <c r="E30" s="5">
+        <v>100000</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="5">
+        <v>123</v>
+      </c>
+      <c r="C31" s="5">
+        <v>20</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1380</v>
+      </c>
+      <c r="E31" s="5">
+        <v>100000</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="5">
+        <v>1234</v>
+      </c>
+      <c r="C32" s="5">
+        <v>170</v>
+      </c>
+      <c r="D32" s="5">
+        <v>138</v>
+      </c>
+      <c r="E32" s="5">
+        <v>100000</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="5">
+        <v>1234</v>
+      </c>
+      <c r="C33" s="5">
+        <v>13</v>
+      </c>
+      <c r="D33" s="5">
+        <v>138</v>
+      </c>
+      <c r="E33" s="5">
+        <v>100000</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="5">
+        <v>1234</v>
+      </c>
+      <c r="C34" s="5">
+        <v>17</v>
+      </c>
+      <c r="D34" s="5">
+        <v>138</v>
+      </c>
+      <c r="E34" s="5">
+        <v>100000</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="5">
+        <v>12345</v>
+      </c>
+      <c r="C35" s="5">
+        <v>176</v>
+      </c>
+      <c r="D35" s="5">
+        <v>9</v>
+      </c>
+      <c r="E35" s="5">
+        <v>100000</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="5">
+        <v>12345</v>
+      </c>
+      <c r="C36" s="5">
+        <v>14</v>
+      </c>
+      <c r="D36" s="5">
+        <v>9</v>
+      </c>
+      <c r="E36" s="5">
+        <v>100000</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="5">
+        <v>12345</v>
+      </c>
+      <c r="C37" s="5">
+        <v>20</v>
+      </c>
+      <c r="D37" s="5">
+        <v>9</v>
+      </c>
+      <c r="E37" s="5">
+        <v>100000</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="5">
+        <v>123</v>
+      </c>
+      <c r="C38" s="5">
+        <v>326</v>
+      </c>
+      <c r="D38" s="5">
+        <v>2775</v>
+      </c>
+      <c r="E38" s="5">
+        <v>200000</v>
+      </c>
+      <c r="F38" s="5">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="5">
+        <v>123</v>
+      </c>
+      <c r="C39" s="5">
+        <v>17</v>
+      </c>
+      <c r="D39" s="5">
+        <v>2775</v>
+      </c>
+      <c r="E39" s="5">
+        <v>200000</v>
+      </c>
+      <c r="F39" s="5">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="5">
+        <v>123</v>
+      </c>
+      <c r="C40" s="5">
+        <v>20</v>
+      </c>
+      <c r="D40" s="5">
+        <v>2775</v>
+      </c>
+      <c r="E40" s="5">
+        <v>200000</v>
+      </c>
+      <c r="F40" s="5">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="5">
+        <v>1234</v>
+      </c>
+      <c r="C41" s="5">
+        <v>350</v>
+      </c>
+      <c r="D41" s="5">
+        <v>287</v>
+      </c>
+      <c r="E41" s="5">
+        <v>200000</v>
+      </c>
+      <c r="F41" s="5">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="5">
+        <v>1234</v>
+      </c>
+      <c r="C42" s="5">
+        <v>17</v>
+      </c>
+      <c r="D42" s="5">
+        <v>287</v>
+      </c>
+      <c r="E42" s="5">
+        <v>200000</v>
+      </c>
+      <c r="F42" s="5">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="5">
+        <v>1234</v>
+      </c>
+      <c r="C43" s="5">
+        <v>20</v>
+      </c>
+      <c r="D43" s="5">
+        <v>287</v>
+      </c>
+      <c r="E43" s="5">
+        <v>200000</v>
+      </c>
+      <c r="F43" s="5">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="5">
+        <v>12345</v>
+      </c>
+      <c r="C44" s="5">
+        <v>340</v>
+      </c>
+      <c r="D44" s="5">
+        <v>18</v>
+      </c>
+      <c r="E44" s="5">
+        <v>200000</v>
+      </c>
+      <c r="F44" s="5">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="5">
+        <v>12345</v>
+      </c>
+      <c r="C45" s="5">
+        <v>16</v>
+      </c>
+      <c r="D45" s="5">
+        <v>18</v>
+      </c>
+      <c r="E45" s="5">
+        <v>200000</v>
+      </c>
+      <c r="F45" s="5">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="5">
+        <v>12345</v>
+      </c>
+      <c r="C46" s="5">
+        <v>17</v>
+      </c>
+      <c r="D46" s="5">
+        <v>18</v>
+      </c>
+      <c r="E46" s="5">
+        <v>200000</v>
+      </c>
+      <c r="F46" s="5">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="5">
+        <v>123</v>
+      </c>
+      <c r="C47" s="5">
+        <v>443</v>
+      </c>
+      <c r="D47" s="5">
+        <v>3520</v>
+      </c>
+      <c r="E47" s="5">
+        <v>250000</v>
+      </c>
+      <c r="F47" s="5">
+        <v>3750000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="5">
+        <v>123</v>
+      </c>
+      <c r="C48" s="5">
+        <v>20</v>
+      </c>
+      <c r="D48" s="5">
+        <v>3520</v>
+      </c>
+      <c r="E48" s="5">
+        <v>250000</v>
+      </c>
+      <c r="F48" s="5">
+        <v>3750000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="5">
+        <v>123</v>
+      </c>
+      <c r="C49" s="5">
+        <v>24</v>
+      </c>
+      <c r="D49" s="5">
+        <v>3520</v>
+      </c>
+      <c r="E49" s="5">
+        <v>250000</v>
+      </c>
+      <c r="F49" s="5">
+        <v>3750000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="5">
+        <v>1234</v>
+      </c>
+      <c r="C50" s="5">
+        <v>436</v>
+      </c>
+      <c r="D50" s="5">
+        <v>374</v>
+      </c>
+      <c r="E50" s="5">
+        <v>250000</v>
+      </c>
+      <c r="F50" s="5">
+        <v>3750000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="5">
+        <v>1234</v>
+      </c>
+      <c r="C51" s="5">
+        <v>20</v>
+      </c>
+      <c r="D51" s="5">
+        <v>374</v>
+      </c>
+      <c r="E51" s="5">
+        <v>250000</v>
+      </c>
+      <c r="F51" s="5">
+        <v>3750000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="5">
+        <v>1234</v>
+      </c>
+      <c r="C52" s="5">
+        <v>24</v>
+      </c>
+      <c r="D52" s="5">
+        <v>374</v>
+      </c>
+      <c r="E52" s="5">
+        <v>250000</v>
+      </c>
+      <c r="F52" s="5">
+        <v>3750000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="5">
+        <v>12345</v>
+      </c>
+      <c r="C53" s="5">
+        <v>483</v>
+      </c>
+      <c r="D53" s="5">
+        <v>29</v>
+      </c>
+      <c r="E53" s="5">
+        <v>250000</v>
+      </c>
+      <c r="F53" s="5">
+        <v>3750000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="5">
+        <v>12345</v>
+      </c>
+      <c r="C54" s="5">
+        <v>20</v>
+      </c>
+      <c r="D54" s="5">
+        <v>29</v>
+      </c>
+      <c r="E54" s="5">
+        <v>250000</v>
+      </c>
+      <c r="F54" s="5">
+        <v>3750000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="5">
+        <v>12345</v>
+      </c>
+      <c r="C55" s="5">
+        <v>17</v>
+      </c>
+      <c r="D55" s="5">
+        <v>29</v>
+      </c>
+      <c r="E55" s="5">
+        <v>250000</v>
+      </c>
+      <c r="F55" s="5">
+        <v>3750000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="5">
+        <v>123</v>
+      </c>
+      <c r="C56" s="5">
+        <v>760</v>
+      </c>
+      <c r="D56" s="5">
+        <v>7074</v>
+      </c>
+      <c r="E56" s="5">
+        <v>500000</v>
+      </c>
+      <c r="F56" s="5">
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="5">
+        <v>123</v>
+      </c>
+      <c r="C57" s="5">
+        <v>30</v>
+      </c>
+      <c r="D57" s="5">
+        <v>7074</v>
+      </c>
+      <c r="E57" s="5">
+        <v>500000</v>
+      </c>
+      <c r="F57" s="5">
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="5">
+        <v>123</v>
+      </c>
+      <c r="C58" s="5">
+        <v>37</v>
+      </c>
+      <c r="D58" s="5">
+        <v>7074</v>
+      </c>
+      <c r="E58" s="5">
+        <v>500000</v>
+      </c>
+      <c r="F58" s="5">
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="5">
+        <v>1234</v>
+      </c>
+      <c r="C59" s="5">
+        <v>780</v>
+      </c>
+      <c r="D59" s="5">
+        <v>736</v>
+      </c>
+      <c r="E59" s="5">
+        <v>500000</v>
+      </c>
+      <c r="F59" s="5">
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="5">
+        <v>1234</v>
+      </c>
+      <c r="C60" s="5">
+        <v>30</v>
+      </c>
+      <c r="D60" s="5">
+        <v>736</v>
+      </c>
+      <c r="E60" s="5">
+        <v>500000</v>
+      </c>
+      <c r="F60" s="5">
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="5">
+        <v>1234</v>
+      </c>
+      <c r="C61" s="5">
+        <v>23</v>
+      </c>
+      <c r="D61" s="5">
+        <v>736</v>
+      </c>
+      <c r="E61" s="5">
+        <v>500000</v>
+      </c>
+      <c r="F61" s="5">
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="5">
+        <v>12345</v>
+      </c>
+      <c r="C62" s="5">
+        <v>787</v>
+      </c>
+      <c r="D62" s="5">
+        <v>66</v>
+      </c>
+      <c r="E62" s="5">
+        <v>500000</v>
+      </c>
+      <c r="F62" s="5">
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="5">
+        <v>12345</v>
+      </c>
+      <c r="C63" s="5">
+        <v>30</v>
+      </c>
+      <c r="D63" s="5">
+        <v>66</v>
+      </c>
+      <c r="E63" s="5">
+        <v>500000</v>
+      </c>
+      <c r="F63" s="5">
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="5">
+        <v>12345</v>
+      </c>
+      <c r="C64" s="5">
+        <v>30</v>
+      </c>
+      <c r="D64" s="5">
+        <v>66</v>
+      </c>
+      <c r="E64" s="5">
+        <v>500000</v>
+      </c>
+      <c r="F64" s="5">
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>123</v>
+      </c>
+      <c r="C65">
+        <v>1570</v>
+      </c>
+      <c r="D65">
+        <v>14086</v>
+      </c>
+      <c r="E65">
+        <v>1000000</v>
+      </c>
+      <c r="F65">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>123</v>
+      </c>
+      <c r="C66">
+        <v>60</v>
+      </c>
+      <c r="D66">
+        <v>14086</v>
+      </c>
+      <c r="E66">
+        <v>1000000</v>
+      </c>
+      <c r="F66">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>123</v>
+      </c>
+      <c r="C67">
+        <v>84</v>
+      </c>
+      <c r="D67">
+        <v>14086</v>
+      </c>
+      <c r="E67">
+        <v>1000000</v>
+      </c>
+      <c r="F67">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>1234</v>
+      </c>
+      <c r="C68">
+        <v>1633</v>
+      </c>
+      <c r="D68">
+        <v>1365</v>
+      </c>
+      <c r="E68">
+        <v>1000000</v>
+      </c>
+      <c r="F68">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>1234</v>
+      </c>
+      <c r="C69">
+        <v>57</v>
+      </c>
+      <c r="D69">
+        <v>1365</v>
+      </c>
+      <c r="E69">
+        <v>1000000</v>
+      </c>
+      <c r="F69">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>1234</v>
+      </c>
+      <c r="C70">
+        <v>56</v>
+      </c>
+      <c r="D70">
+        <v>1365</v>
+      </c>
+      <c r="E70">
+        <v>1000000</v>
+      </c>
+      <c r="F70">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>12345</v>
+      </c>
+      <c r="C71">
+        <v>1607</v>
+      </c>
+      <c r="D71">
+        <v>124</v>
+      </c>
+      <c r="E71">
+        <v>1000000</v>
+      </c>
+      <c r="F71">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>12345</v>
+      </c>
+      <c r="C72">
+        <v>57</v>
+      </c>
+      <c r="D72">
+        <v>124</v>
+      </c>
+      <c r="E72">
+        <v>1000000</v>
+      </c>
+      <c r="F72">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73">
+        <v>12345</v>
+      </c>
+      <c r="C73">
+        <v>53</v>
+      </c>
+      <c r="D73">
+        <v>124</v>
+      </c>
+      <c r="E73">
+        <v>1000000</v>
+      </c>
+      <c r="F73">
+        <v>15000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95D0289-38AD-45DB-9352-1FA3D049120E}">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>123</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1234</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
+        <v>12345</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6">
         <v>0</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D6" s="6">
         <v>0</v>
       </c>
-      <c r="D6" s="5">
-        <v>3</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
+      <c r="A7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B7" s="6">
+        <v>24.333333333333332</v>
+      </c>
+      <c r="C7" s="6">
+        <v>12.333333333333334</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>123</v>
       </c>
-      <c r="B8" s="5">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
+      <c r="B8" s="6">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6">
+        <v>27</v>
+      </c>
+      <c r="D8" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1234</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
+        <v>23</v>
+      </c>
+      <c r="C9" s="6">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6">
         <v>3</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>12345</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
+        <v>27</v>
+      </c>
+      <c r="C10" s="6">
         <v>3</v>
       </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
+      <c r="D10" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>10000</v>
-      </c>
-      <c r="B11" s="5">
-        <v>13.4</v>
-      </c>
-      <c r="C11" s="5">
-        <v>5.4</v>
-      </c>
-      <c r="D11" s="5">
-        <v>4.4000000000000004</v>
+        <v>50000</v>
+      </c>
+      <c r="B11" s="6">
+        <v>92.333333333333329</v>
+      </c>
+      <c r="C11" s="6">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="D11" s="6">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>1</v>
-      </c>
-      <c r="B12" s="5">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5">
-        <v>10</v>
-      </c>
-      <c r="D12" s="5">
-        <v>6</v>
+        <v>123</v>
+      </c>
+      <c r="B12" s="6">
+        <v>93</v>
+      </c>
+      <c r="C12" s="6">
+        <v>17</v>
+      </c>
+      <c r="D12" s="6">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5">
-        <v>3</v>
-      </c>
-      <c r="D13" s="5">
-        <v>4</v>
+        <v>1234</v>
+      </c>
+      <c r="B13" s="6">
+        <v>90</v>
+      </c>
+      <c r="C13" s="6">
+        <v>23</v>
+      </c>
+      <c r="D13" s="6">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>123</v>
-      </c>
-      <c r="B14" s="5">
-        <v>16</v>
-      </c>
-      <c r="C14" s="5">
-        <v>4</v>
-      </c>
-      <c r="D14" s="5">
-        <v>6</v>
+        <v>12345</v>
+      </c>
+      <c r="B14" s="6">
+        <v>94</v>
+      </c>
+      <c r="C14" s="6">
+        <v>30</v>
+      </c>
+      <c r="D14" s="6">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>1234</v>
-      </c>
-      <c r="B15" s="5">
-        <v>14</v>
-      </c>
-      <c r="C15" s="5">
-        <v>3</v>
-      </c>
-      <c r="D15" s="5">
-        <v>3</v>
+      <c r="A15" s="3">
+        <v>100000</v>
+      </c>
+      <c r="B15" s="6">
+        <v>173</v>
+      </c>
+      <c r="C15" s="6">
+        <v>13.666666666666666</v>
+      </c>
+      <c r="D15" s="6">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>12345</v>
-      </c>
-      <c r="B16" s="5">
+        <v>123</v>
+      </c>
+      <c r="B16" s="6">
+        <v>173</v>
+      </c>
+      <c r="C16" s="6">
+        <v>14</v>
+      </c>
+      <c r="D16" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>1234</v>
+      </c>
+      <c r="B17" s="6">
+        <v>170</v>
+      </c>
+      <c r="C17" s="6">
+        <v>13</v>
+      </c>
+      <c r="D17" s="6">
         <v>17</v>
-      </c>
-      <c r="C16" s="5">
-        <v>7</v>
-      </c>
-      <c r="D16" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>50000</v>
-      </c>
-      <c r="B17" s="5">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="C17" s="5">
-        <v>25.8</v>
-      </c>
-      <c r="D17" s="5">
-        <v>24.8</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="5">
-        <v>47</v>
-      </c>
-      <c r="C18" s="5">
-        <v>46</v>
-      </c>
-      <c r="D18" s="5">
-        <v>47</v>
+        <v>12345</v>
+      </c>
+      <c r="B18" s="6">
+        <v>176</v>
+      </c>
+      <c r="C18" s="6">
+        <v>14</v>
+      </c>
+      <c r="D18" s="6">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>12</v>
-      </c>
-      <c r="B19" s="5">
-        <v>73</v>
-      </c>
-      <c r="C19" s="5">
-        <v>20</v>
-      </c>
-      <c r="D19" s="5">
-        <v>20</v>
+      <c r="A19" s="3">
+        <v>200000</v>
+      </c>
+      <c r="B19" s="6">
+        <v>338.66666666666669</v>
+      </c>
+      <c r="C19" s="6">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="D19" s="6">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>123</v>
       </c>
-      <c r="B20" s="5">
-        <v>80</v>
-      </c>
-      <c r="C20" s="5">
-        <v>20</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="B20" s="6">
+        <v>326</v>
+      </c>
+      <c r="C20" s="6">
+        <v>17</v>
+      </c>
+      <c r="D20" s="6">
         <v>20</v>
       </c>
     </row>
@@ -6776,13 +11582,13 @@
       <c r="A21" s="4">
         <v>1234</v>
       </c>
-      <c r="B21" s="5">
-        <v>84</v>
-      </c>
-      <c r="C21" s="5">
-        <v>20</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="B21" s="6">
+        <v>350</v>
+      </c>
+      <c r="C21" s="6">
+        <v>17</v>
+      </c>
+      <c r="D21" s="6">
         <v>20</v>
       </c>
     </row>
@@ -6790,434 +11596,182 @@
       <c r="A22" s="4">
         <v>12345</v>
       </c>
-      <c r="B22" s="5">
-        <v>83</v>
-      </c>
-      <c r="C22" s="5">
-        <v>23</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="B22" s="6">
+        <v>340</v>
+      </c>
+      <c r="C22" s="6">
+        <v>16</v>
+      </c>
+      <c r="D22" s="6">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>100000</v>
-      </c>
-      <c r="B23" s="5">
-        <v>141.19999999999999</v>
-      </c>
-      <c r="C23" s="5">
-        <v>24.8</v>
-      </c>
-      <c r="D23" s="5">
-        <v>25.4</v>
+        <v>250000</v>
+      </c>
+      <c r="B23" s="6">
+        <v>454</v>
+      </c>
+      <c r="C23" s="6">
+        <v>20</v>
+      </c>
+      <c r="D23" s="6">
+        <v>21.666666666666668</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>1</v>
-      </c>
-      <c r="B24" s="5">
-        <v>94</v>
-      </c>
-      <c r="C24" s="5">
-        <v>56</v>
-      </c>
-      <c r="D24" s="5">
-        <v>50</v>
+        <v>123</v>
+      </c>
+      <c r="B24" s="6">
+        <v>443</v>
+      </c>
+      <c r="C24" s="6">
+        <v>20</v>
+      </c>
+      <c r="D24" s="6">
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>12</v>
-      </c>
-      <c r="B25" s="5">
-        <v>144</v>
-      </c>
-      <c r="C25" s="5">
+        <v>1234</v>
+      </c>
+      <c r="B25" s="6">
+        <v>436</v>
+      </c>
+      <c r="C25" s="6">
         <v>20</v>
       </c>
-      <c r="D25" s="5">
-        <v>23</v>
+      <c r="D25" s="6">
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>123</v>
-      </c>
-      <c r="B26" s="5">
-        <v>157</v>
-      </c>
-      <c r="C26" s="5">
-        <v>16</v>
-      </c>
-      <c r="D26" s="5">
+        <v>12345</v>
+      </c>
+      <c r="B26" s="6">
+        <v>483</v>
+      </c>
+      <c r="C26" s="6">
         <v>20</v>
       </c>
+      <c r="D26" s="6">
+        <v>17</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>1234</v>
-      </c>
-      <c r="B27" s="5">
-        <v>154</v>
-      </c>
-      <c r="C27" s="5">
-        <v>16</v>
-      </c>
-      <c r="D27" s="5">
-        <v>17</v>
+      <c r="A27" s="3">
+        <v>500000</v>
+      </c>
+      <c r="B27" s="6">
+        <v>775.66666666666663</v>
+      </c>
+      <c r="C27" s="6">
+        <v>30</v>
+      </c>
+      <c r="D27" s="6">
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>12345</v>
-      </c>
-      <c r="B28" s="5">
-        <v>157</v>
-      </c>
-      <c r="C28" s="5">
-        <v>16</v>
-      </c>
-      <c r="D28" s="5">
-        <v>17</v>
+        <v>123</v>
+      </c>
+      <c r="B28" s="6">
+        <v>760</v>
+      </c>
+      <c r="C28" s="6">
+        <v>30</v>
+      </c>
+      <c r="D28" s="6">
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>200000</v>
-      </c>
-      <c r="B29" s="5">
-        <v>323</v>
-      </c>
-      <c r="C29" s="5">
-        <v>49.2</v>
-      </c>
-      <c r="D29" s="5">
-        <v>49.8</v>
+      <c r="A29" s="4">
+        <v>1234</v>
+      </c>
+      <c r="B29" s="6">
+        <v>780</v>
+      </c>
+      <c r="C29" s="6">
+        <v>30</v>
+      </c>
+      <c r="D29" s="6">
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>1</v>
-      </c>
-      <c r="B30" s="5">
-        <v>210</v>
-      </c>
-      <c r="C30" s="5">
-        <v>107</v>
-      </c>
-      <c r="D30" s="5">
-        <v>113</v>
+        <v>12345</v>
+      </c>
+      <c r="B30" s="6">
+        <v>787</v>
+      </c>
+      <c r="C30" s="6">
+        <v>30</v>
+      </c>
+      <c r="D30" s="6">
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>12</v>
-      </c>
-      <c r="B31" s="5">
-        <v>327</v>
-      </c>
-      <c r="C31" s="5">
-        <v>43</v>
-      </c>
-      <c r="D31" s="5">
-        <v>40</v>
+      <c r="A31" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B31" s="6">
+        <v>1603.3333333333333</v>
+      </c>
+      <c r="C31" s="6">
+        <v>58</v>
+      </c>
+      <c r="D31" s="6">
+        <v>64.333333333333329</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>123</v>
       </c>
-      <c r="B32" s="5">
-        <v>334</v>
-      </c>
-      <c r="C32" s="5">
-        <v>30</v>
-      </c>
-      <c r="D32" s="5">
-        <v>36</v>
+      <c r="B32" s="6">
+        <v>1570</v>
+      </c>
+      <c r="C32" s="6">
+        <v>60</v>
+      </c>
+      <c r="D32" s="6">
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>1234</v>
       </c>
-      <c r="B33" s="5">
-        <v>384</v>
-      </c>
-      <c r="C33" s="5">
-        <v>36</v>
-      </c>
-      <c r="D33" s="5">
-        <v>30</v>
+      <c r="B33" s="6">
+        <v>1633</v>
+      </c>
+      <c r="C33" s="6">
+        <v>57</v>
+      </c>
+      <c r="D33" s="6">
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>12345</v>
       </c>
-      <c r="B34" s="5">
-        <v>360</v>
-      </c>
-      <c r="C34" s="5">
-        <v>30</v>
-      </c>
-      <c r="D34" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>250000</v>
-      </c>
-      <c r="B35" s="5">
-        <v>375.2</v>
-      </c>
-      <c r="C35" s="5">
-        <v>60</v>
-      </c>
-      <c r="D35" s="5">
-        <v>63.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>1</v>
-      </c>
-      <c r="B36" s="5">
-        <v>230</v>
-      </c>
-      <c r="C36" s="5">
-        <v>127</v>
-      </c>
-      <c r="D36" s="5">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>12</v>
-      </c>
-      <c r="B37" s="5">
-        <v>360</v>
-      </c>
-      <c r="C37" s="5">
-        <v>50</v>
-      </c>
-      <c r="D37" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>123</v>
-      </c>
-      <c r="B38" s="5">
-        <v>430</v>
-      </c>
-      <c r="C38" s="5">
-        <v>43</v>
-      </c>
-      <c r="D38" s="5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>1234</v>
-      </c>
-      <c r="B39" s="5">
-        <v>426</v>
-      </c>
-      <c r="C39" s="5">
-        <v>40</v>
-      </c>
-      <c r="D39" s="5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>12345</v>
-      </c>
-      <c r="B40" s="5">
-        <v>430</v>
-      </c>
-      <c r="C40" s="5">
-        <v>40</v>
-      </c>
-      <c r="D40" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>500000</v>
-      </c>
-      <c r="B41" s="5">
-        <v>750.8</v>
-      </c>
-      <c r="C41" s="5">
-        <v>128</v>
-      </c>
-      <c r="D41" s="5">
-        <v>124.4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>1</v>
-      </c>
-      <c r="B42" s="5">
-        <v>473</v>
-      </c>
-      <c r="C42" s="5">
-        <v>267</v>
-      </c>
-      <c r="D42" s="5">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>12</v>
-      </c>
-      <c r="B43" s="5">
-        <v>793</v>
-      </c>
-      <c r="C43" s="5">
-        <v>114</v>
-      </c>
-      <c r="D43" s="5">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>123</v>
-      </c>
-      <c r="B44" s="5">
-        <v>830</v>
-      </c>
-      <c r="C44" s="5">
-        <v>80</v>
-      </c>
-      <c r="D44" s="5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>1234</v>
-      </c>
-      <c r="B45" s="5">
-        <v>824</v>
-      </c>
-      <c r="C45" s="5">
-        <v>83</v>
-      </c>
-      <c r="D45" s="5">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>12345</v>
-      </c>
-      <c r="B46" s="5">
-        <v>834</v>
-      </c>
-      <c r="C46" s="5">
-        <v>96</v>
-      </c>
-      <c r="D46" s="5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="B47" s="5">
-        <v>1460.8</v>
-      </c>
-      <c r="C47" s="5">
-        <v>243.8</v>
-      </c>
-      <c r="D47" s="5">
-        <v>242.8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>1</v>
-      </c>
-      <c r="B48" s="5">
-        <v>920</v>
-      </c>
-      <c r="C48" s="5">
-        <v>553</v>
-      </c>
-      <c r="D48" s="5">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>12</v>
-      </c>
-      <c r="B49" s="5">
-        <v>1497</v>
-      </c>
-      <c r="C49" s="5">
-        <v>190</v>
-      </c>
-      <c r="D49" s="5">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
-        <v>123</v>
-      </c>
-      <c r="B50" s="5">
-        <v>1594</v>
-      </c>
-      <c r="C50" s="5">
-        <v>153</v>
-      </c>
-      <c r="D50" s="5">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>1234</v>
-      </c>
-      <c r="B51" s="5">
-        <v>1623</v>
-      </c>
-      <c r="C51" s="5">
-        <v>160</v>
-      </c>
-      <c r="D51" s="5">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>12345</v>
-      </c>
-      <c r="B52" s="5">
-        <v>1670</v>
-      </c>
-      <c r="C52" s="5">
-        <v>163</v>
-      </c>
-      <c r="D52" s="5">
-        <v>157</v>
+      <c r="B34" s="6">
+        <v>1607</v>
+      </c>
+      <c r="C34" s="6">
+        <v>57</v>
+      </c>
+      <c r="D34" s="6">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
